--- a/convertExcel/bin/Release/myNewSpreadsheet.xlsx
+++ b/convertExcel/bin/Release/myNewSpreadsheet.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rd2a61d1d696a4c0b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rd3c0bae907324bae"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/convertExcel/bin/Release/myNewSpreadsheet.xlsx
+++ b/convertExcel/bin/Release/myNewSpreadsheet.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rd3c0bae907324bae"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rc62253977d4c4641"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/convertExcel/bin/Release/myNewSpreadsheet.xlsx
+++ b/convertExcel/bin/Release/myNewSpreadsheet.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rc62253977d4c4641"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rb565d480f63c4227"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/convertExcel/bin/Release/myNewSpreadsheet.xlsx
+++ b/convertExcel/bin/Release/myNewSpreadsheet.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rb565d480f63c4227"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R5b626534c152412f"/>
   </x:sheets>
 </x:workbook>
 </file>
